--- a/biology/Microbiologie/Platyophryidae/Platyophryidae.xlsx
+++ b/biology/Microbiologie/Platyophryidae/Platyophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Platyophryidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Cyrtolophosidida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Platyophryides, dérivé du grec ancien πλατύς / platús, « plat, large », et de οφρύς / ophrýs, sourcil, en référence à l'aspect compressé de l'organisme et à la présence de soies faisant penser à des sourcils[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Platyophryides, dérivé du grec ancien πλατύς / platús, « plat, large », et de οφρύς / ophrýs, sourcil, en référence à l'aspect compressé de l'organisme et à la présence de soies faisant penser à des sourcils.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 novembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 novembre 2022) :
 Cirrophrya Gellért, 1950
 Platyophrya Kahl, 1926
 Platyophryides Foissner, 1987
@@ -576,9 +592,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Platyophryidae a été créée en 1979 par Pierre de Puytorac (d), Fernando Perez-Paniagua (d) et Julio Pérez-Silva (d)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Platyophryidae a été créée en 1979 par Pierre de Puytorac (d), Fernando Perez-Paniagua (d) et Julio Pérez-Silva (d).
 </t>
         </is>
       </c>
